--- a/Data/results_20250209_185118/selected_features_with_infertility_cleaned_encoding_mapping.xlsx
+++ b/Data/results_20250209_185118/selected_features_with_infertility_cleaned_encoding_mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,12 +546,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IVF</t>
+          <t>DI</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ICSI</t>
+          <t>GIFT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>만21-25세</t>
+          <t>만20세 이하</t>
         </is>
       </c>
     </row>
@@ -644,10 +644,14 @@
           <t>만35-37세</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IVF</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICSI / AH</t>
+          <t>Generic DI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -705,7 +709,11 @@
           <t>1회</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>미할당</t>
@@ -714,7 +722,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>만26-30세</t>
+          <t>만21-25세</t>
         </is>
       </c>
     </row>
@@ -735,7 +743,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICSI / BLASTOCYST </t>
+          <t>ICI</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -802,7 +810,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>만31-35세</t>
+          <t>만26-30세</t>
         </is>
       </c>
     </row>
@@ -823,7 +831,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICSI / BLASTOCYST :IVF / BLASTOCYST</t>
+          <t>ICSI</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -861,7 +869,11 @@
           <t>3회</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3회</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>3회</t>
@@ -872,13 +884,17 @@
           <t>3회</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3회</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>만36-40세</t>
+          <t>만31-35세</t>
         </is>
       </c>
     </row>
@@ -899,7 +915,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICSI / BLASTOCYST:IVF / BLASTOCYST</t>
+          <t>ICSI / AH</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -937,7 +953,11 @@
           <t>4회</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4회</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -946,7 +966,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>만41-45세</t>
+          <t>만36-40세</t>
         </is>
       </c>
     </row>
@@ -967,7 +987,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICSI:ICSI</t>
+          <t xml:space="preserve">ICSI / BLASTOCYST </t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -1001,7 +1021,11 @@
           <t>5회</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5회</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -1010,7 +1034,7 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>알 수 없음</t>
+          <t>만41-45세</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1051,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICSI:IVF</t>
+          <t>ICSI / BLASTOCYST :IVF / BLASTOCYST</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1060,7 +1084,11 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>알 수 없음</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1071,7 +1099,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICSI:Unknown</t>
+          <t>ICSI / BLASTOCYST:IVF / BLASTOCYST</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1099,7 +1127,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IVF</t>
+          <t>ICSI:ICSI</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1127,7 +1155,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>IVF / AH</t>
+          <t>ICSI:IVF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1155,7 +1183,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>IVF / BLASTOCYST</t>
+          <t>ICSI:Unknown</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1183,7 +1211,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IVF:ICSI</t>
+          <t>IUI</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1211,7 +1239,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>IVF:IVF</t>
+          <t>IVF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1239,7 +1267,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>IVF:Unknown</t>
+          <t>IVF / AH</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1258,6 +1286,174 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>IVF / AH:ICSI / AH</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>IVF / BLASTOCYST</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>IVF:ICSI</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>IVF:IVF</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>IVF:Unknown</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>IVI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
